--- a/owlcms/src/main/resources/templates/competitionResults/Score-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/Score-LETTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD173EAB-B265-4AE1-88C5-983C86D3CB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{643BBFC8-C3E9-408D-BB7B-12549E6041CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="2235" windowWidth="23985" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="23025" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="CategoryFilter">Results!#REF!</definedName>
     <definedName name="CLUB">Results!#REF!</definedName>
     <definedName name="Collet">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Results!$A$1:$CF$88</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Results!$A$1:$CF$90</definedName>
     <definedName name="demandé">Results!#REF!</definedName>
     <definedName name="dernier">Results!#REF!</definedName>
     <definedName name="essais">Results!#REF!</definedName>
@@ -37,7 +37,7 @@
     <definedName name="InactiveGroupFilter">Results!#REF!</definedName>
     <definedName name="isSnatch">Results!#REF!</definedName>
     <definedName name="lbParKg">Results!#REF!</definedName>
-    <definedName name="LignesCalculs">Results!#REF!</definedName>
+    <definedName name="LignesCalculs">Results!$16:$16</definedName>
     <definedName name="LignesEntête">Results!$1:$5</definedName>
     <definedName name="LignesOfficiels">Results!#REF!</definedName>
     <definedName name="M_F">Results!#REF!</definedName>
@@ -364,13 +364,13 @@
     <t>${t.get("Rank")}</t>
   </si>
   <si>
+    <t>${group.item.category.ageGroup.scoringTitle}</t>
+  </si>
+  <si>
     <t>${l.categoryScore}</t>
   </si>
   <si>
     <t>${l.categoryScoreRank &lt; 0 ? t.get("Results.Extra/Invited") : (l.categoryScoreRank &gt; 0 ? l.categoryScoreRank : "" )}</t>
-  </si>
-  <si>
-    <t>${group.item.category.ageGroup.scoringTitle}</t>
   </si>
 </sst>
 </file>
@@ -1011,9 +1011,6 @@
     <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1156,33 +1153,80 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1194,50 +1238,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1718,7 +1718,7 @@
   <sheetPr codeName="Feuil4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X114"/>
+  <dimension ref="A1:X116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -1750,104 +1750,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="13"/>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-      <c r="U1" s="92"/>
-      <c r="V1" s="92"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="4"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="22" t="s">
+      <c r="L2" s="77"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="J3" s="22" t="s">
+      <c r="B3" s="41"/>
+      <c r="J3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="22" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
       <c r="V3" s="78"/>
     </row>
     <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="J4" s="22"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="8"/>
       <c r="L4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="46"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="45"/>
     </row>
     <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1856,32 +1856,32 @@
       <c r="H6" s="7"/>
       <c r="I6" s="9"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="26" t="s">
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="28" t="s">
+      <c r="P6" s="93"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="99" t="s">
+      <c r="S6" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="97" t="s">
+      <c r="T6" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="95" t="s">
+      <c r="V6" s="97" t="s">
         <v>71</v>
       </c>
       <c r="X6"/>
@@ -1899,10 +1899,10 @@
       <c r="D7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="88"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="11" t="s">
         <v>33</v>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="M7" s="10">
         <v>3</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="26" t="s">
         <v>43</v>
       </c>
       <c r="O7" s="10">
@@ -1936,55 +1936,55 @@
       <c r="Q7" s="10">
         <v>3</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="100"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="96"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="98"/>
     </row>
     <row r="8" spans="1:24" s="19" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
       <c r="V8" s="79"/>
     </row>
     <row r="9" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="103"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" s="100"/>
       <c r="X9"/>
     </row>
     <row r="10" spans="1:24" s="19" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -2000,20 +2000,20 @@
       <c r="D10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="48" t="s">
+      <c r="F10" s="102"/>
+      <c r="G10" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="46" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="18" t="s">
@@ -2037,20 +2037,20 @@
       <c r="Q10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="30" t="s">
+      <c r="T10" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="21" t="s">
-        <v>72</v>
+      <c r="U10" s="80" t="s">
+        <v>73</v>
       </c>
       <c r="V10" s="81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2067,138 +2067,146 @@
       <c r="R11"/>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="82"/>
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:24" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="V12" s="82"/>
-    </row>
-    <row r="13" spans="1:24" s="32" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="83"/>
-    </row>
-    <row r="14" spans="1:24" s="75" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="J12" s="32"/>
+      <c r="V12" s="83"/>
+    </row>
+    <row r="13" spans="1:24" s="31" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="84"/>
+    </row>
+    <row r="14" spans="1:24" s="74" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="69" t="s">
+      <c r="H14" s="71"/>
+      <c r="I14" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="66" t="s">
+      <c r="K14" s="72"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="66" t="s">
+      <c r="O14" s="66"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="67"/>
-      <c r="S14" s="66" t="s">
+      <c r="R14" s="66"/>
+      <c r="S14" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="73"/>
-      <c r="U14" s="66" t="s">
+      <c r="T14" s="72"/>
+      <c r="U14" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="V14" s="84"/>
-      <c r="X14" s="68"/>
-    </row>
-    <row r="15" spans="1:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="V14" s="85"/>
+      <c r="X14" s="67"/>
+    </row>
+    <row r="15" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="76" t="s">
+      <c r="H15" s="59"/>
+      <c r="I15" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="62" t="s">
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="58" t="s">
+      <c r="O15" s="58"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="59"/>
-      <c r="S15" s="65" t="s">
+      <c r="R15" s="58"/>
+      <c r="S15" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="T15" s="59"/>
-      <c r="U15" s="64" t="s">
+      <c r="T15" s="58"/>
+      <c r="U15" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="V15" s="85"/>
-      <c r="X15" s="60"/>
+      <c r="V15" s="86"/>
+      <c r="X15" s="59"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="U16" s="12"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="M16"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="1"/>
+      <c r="R16"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
@@ -2213,8 +2221,6 @@
       <c r="U19" s="12"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
       <c r="F20" s="1"/>
       <c r="U20" s="12"/>
     </row>
@@ -2223,14 +2229,18 @@
       <c r="U21" s="12"/>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="1"/>
       <c r="U22" s="12"/>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
+      <c r="U23" s="12"/>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
+      <c r="U24" s="12"/>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
@@ -2501,21 +2511,27 @@
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="11">
+    <mergeCell ref="U9:V9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="K1:V1"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:D8">
     <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
